--- a/Beleg/Christof/ErgExc.xlsx
+++ b/Beleg/Christof/ErgExc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>Zeilen gesamt</t>
   </si>
@@ -70,6 +70,45 @@
   </si>
   <si>
     <t>mit Hash Indexes auf primary keys und foreign keys und b-tree Index auf Datum/mit Sub-Partitioning (Range-Partitioning quartalsweise auf Datum und für jedes Quartal jeweils vier Hash-Partitions auf TO_DAYS(Datum))</t>
+  </si>
+  <si>
+    <t>Use Case 1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>Use Case 2</t>
+  </si>
+  <si>
+    <t>Use Case 3</t>
+  </si>
+  <si>
+    <t>Use Case 4</t>
+  </si>
+  <si>
+    <t>Ergebnisse für eine Kundenanzahl von 1 Mio.</t>
   </si>
 </sst>
 </file>
@@ -91,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +149,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,31 +180,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -447,86 +517,88 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
         <v>32000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.7</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4">
         <v>311000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>78.099999999999994</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>94.9</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>100000</v>
       </c>
       <c r="B5">
         <v>3101000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>340</v>
       </c>
       <c r="D5" t="s">
@@ -539,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -559,84 +631,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1000</v>
       </c>
       <c r="B9">
         <v>32000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3.4</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>10000</v>
       </c>
       <c r="B10">
         <v>311000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>73.7</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>90.7</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="I10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>100000</v>
       </c>
       <c r="B11">
         <v>3101000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>344.2</v>
       </c>
       <c r="D11" t="s">
@@ -648,8 +739,23 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>120.7</v>
+      </c>
+      <c r="J11">
+        <v>450.9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="L11">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1000000</v>
       </c>
@@ -668,38 +774,100 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="H12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>119.2</v>
+      </c>
+      <c r="J12">
+        <v>458.1</v>
+      </c>
+      <c r="K12">
+        <v>55.7</v>
+      </c>
+      <c r="L12">
+        <v>209.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>116.1</v>
+      </c>
+      <c r="J13">
+        <v>465.6</v>
+      </c>
+      <c r="K13">
+        <v>19.3</v>
+      </c>
+      <c r="L13">
+        <v>196.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13">
+        <v>114.5</v>
+      </c>
+      <c r="J14">
+        <v>641.5</v>
+      </c>
+      <c r="K14" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="L14">
+        <v>152.80000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>119.1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1184.2</v>
+      </c>
+      <c r="K15">
+        <v>15.8</v>
+      </c>
+      <c r="L15" s="2">
+        <v>237.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -718,8 +886,23 @@
       <c r="F16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="J16" s="13">
+        <v>427</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -738,8 +921,23 @@
       <c r="F17">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>125</v>
+      </c>
+      <c r="J17">
+        <v>510.1</v>
+      </c>
+      <c r="K17">
+        <v>19.7</v>
+      </c>
+      <c r="L17">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>100000</v>
       </c>
@@ -758,46 +956,73 @@
       <c r="F18">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>115.4</v>
+      </c>
+      <c r="J18">
+        <v>578</v>
+      </c>
+      <c r="K18">
+        <v>14.6</v>
+      </c>
+      <c r="L18" s="13">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1000000</v>
       </c>
       <c r="B19">
         <v>31001000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="C19">
+        <v>120.7</v>
+      </c>
+      <c r="D19">
+        <v>450.9</v>
+      </c>
+      <c r="E19">
+        <v>57.5</v>
+      </c>
+      <c r="F19">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -817,7 +1042,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -837,7 +1062,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>100000</v>
       </c>
@@ -857,15 +1082,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1000000</v>
       </c>
       <c r="B26">
         <v>31001000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1">
+      <c r="C26">
+        <v>119.2</v>
+      </c>
+      <c r="D26">
+        <v>458.1</v>
+      </c>
+      <c r="E26">
+        <v>55.7</v>
+      </c>
+      <c r="F26">
+        <v>209.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="23.25" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -875,15 +1112,15 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
+    <row r="29" spans="1:12">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -903,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -923,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -970,6 +1207,18 @@
       <c r="B34">
         <v>31001000</v>
       </c>
+      <c r="C34">
+        <v>116.1</v>
+      </c>
+      <c r="D34">
+        <v>465.6</v>
+      </c>
+      <c r="E34">
+        <v>19.3</v>
+      </c>
+      <c r="F34">
+        <v>196.3</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
@@ -1063,6 +1312,18 @@
       <c r="B41">
         <v>31001000</v>
       </c>
+      <c r="C41">
+        <v>114.5</v>
+      </c>
+      <c r="D41">
+        <v>641.5</v>
+      </c>
+      <c r="E41">
+        <v>10.7</v>
+      </c>
+      <c r="F41">
+        <v>152.80000000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
@@ -1365,12 +1626,12 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
@@ -1393,7 +1654,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:F7"/>
